--- a/biology/Médecine/Kinase_du_lymphome_anaplasique/Kinase_du_lymphome_anaplasique.xlsx
+++ b/biology/Médecine/Kinase_du_lymphome_anaplasique/Kinase_du_lymphome_anaplasique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La kinase du lymphome anaplasique (ou ALK pour anaplastic lymphoma kinase) est une tyrosine kinase. Son gène dit ALK est situé sur le chromosome 2 humain. Elle appartient à la superfamille des récepteurs de l'insuline partageant un degré élevé d'homologie avec la tyrosine kinase leucocytaire[5]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La kinase du lymphome anaplasique (ou ALK pour anaplastic lymphoma kinase) est une tyrosine kinase. Son gène dit ALK est situé sur le chromosome 2 humain. Elle appartient à la superfamille des récepteurs de l'insuline partageant un degré élevé d'homologie avec la tyrosine kinase leucocytaire. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est impliquée dans plusieurs cancers.
-Certains cancers pulmonaires comportent une fusion de l'ALK avec l'EML4 (« echinoderm microtubule-associated protein-like4 »)[6]. C'est le cas notamment d'environ 5 % des adénocarcinomes pulmonaires, ces derniers comportant certaines caractéristiques cliniques[7] : sujets plus jeunes, non fumeurs.
+Certains cancers pulmonaires comportent une fusion de l'ALK avec l'EML4 (« echinoderm microtubule-associated protein-like4 »). C'est le cas notamment d'environ 5 % des adénocarcinomes pulmonaires, ces derniers comportant certaines caractéristiques cliniques : sujets plus jeunes, non fumeurs.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le crizotinib est un inhibiteur de l'ALK qui s'avère efficace dans le traitement des cancers du poumon impliquant la fusion EML4-ALK[8]. D'autres molécules ciblant cette même enzyme, sont en cours de développement ou déjà commercialisés : le ceritinib[9], l'alectinib, le brigatinib, le lorlatinib.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le crizotinib est un inhibiteur de l'ALK qui s'avère efficace dans le traitement des cancers du poumon impliquant la fusion EML4-ALK. D'autres molécules ciblant cette même enzyme, sont en cours de développement ou déjà commercialisés : le ceritinib, l'alectinib, le brigatinib, le lorlatinib.
 </t>
         </is>
       </c>
